--- a/netlist.xlsx
+++ b/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB52423-6B60-4611-8B37-6270457C844D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1EAB3A9-0AAA-4702-A1C6-D522DA917D6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,23 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="90">
-  <si>
-    <t>bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>from bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>to bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="100">
   <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -76,38 +60,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>bus number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type number</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>parameters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0, Synchronous Generator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10, PLL-Controlled VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Notes:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Data:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>The branches can be listed in arbitrary order.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -128,43 +84,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discretization Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Samping frequency (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linearization Times</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discre Damping Flag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-19, Grid-Following VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29, Grid-Forming VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21, Droop-Controlled VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Zbranch = R+wL+1/(wC+G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10, Synchronous Generator</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If the parameters are left to blank, the default paramters will be used.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,18 +132,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100, Floating Bus (Open Circuit)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Self branch HAS TO be GC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90, Infinite Bus (Short Circuit in Small-Signal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mutual branch HAS TO be RL.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -296,18 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Turns Ratio (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Form with Default Values:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -320,18 +224,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Base Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Power (VA)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base Voltage (V)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes basic settings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -364,42 +256,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>theta (rad/s)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Power Flow Algorithm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1-Gauss-Seidel, 2-Newtown-Raphson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Direct Feedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable CreateSimulinkModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable PlotPole</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable PlotAdmittance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable PrintOutput</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enable PlotSwing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>0-No, 1-Yes</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -412,15 +272,198 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11, PLL-Controlled VSI (without dc link control)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%======================</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summaries advanced settings.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus number</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (create simulink model)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (plot pole map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (plot admittance)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (print output)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable (plot swing)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization damping flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearization times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Direct feedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power flow algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base voltage (V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>To bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device type with default values:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%===============================</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default parameters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta (rad)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer data:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The default value will be used if the corresponding customer paramter is left to blank.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Device type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0: SG (constant field flux)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1: SG (with exitation circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10: VSI (dc-side input is Pdc)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11: VSI (fixed vdc, id_r = Pdc/vd)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12: VSI (dc-side input is idc = Pdc/vdc_r)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2: SG (with prime mover control)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21: VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10: Synchronous generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100: Floating bus (open circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-19: Grid-following voltage- 
+source inverter with PLL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29: Grid-forming voltage-
+source inverter with droop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90: Infinite bus (short circuit in 
+small-signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: the voltage and frequency of infinite bus are setted by power flow.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Note: the floating bus is used for the case when "no device" is connected.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,7 +474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +531,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -509,16 +559,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -802,80 +858,81 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="4" max="4" width="11.33203125" customWidth="1"/>
-    <col min="10" max="10" width="9.59765625" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" t="s">
-        <v>69</v>
-      </c>
-      <c r="G8" t="s">
-        <v>70</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="A8" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="I8" t="s">
+      <c r="B8" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="J8" t="s">
-        <v>73</v>
+      <c r="C8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1015,15 +1072,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="8.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
     <col min="3" max="3" width="13.9296875" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
@@ -1036,231 +1093,271 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>49</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" t="s">
-        <v>42</v>
+        <v>85</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
+      <c r="B10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
-      <c r="B11" s="8" t="s">
-        <v>88</v>
+      <c r="B11" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" t="s">
-        <v>44</v>
-      </c>
-      <c r="E12" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" t="s">
-        <v>47</v>
-      </c>
-      <c r="H12" t="s">
-        <v>45</v>
-      </c>
-      <c r="I12" t="s">
-        <v>46</v>
+      <c r="B12" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>13</v>
+      <c r="B13" s="7" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>87</v>
+      <c r="B14" s="7" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
-      <c r="B15" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B15" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16" s="6" t="s">
-        <v>27</v>
+      <c r="B16" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-      <c r="B18" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="B18" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="3" t="s">
-        <v>38</v>
+      <c r="B19" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B20" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="3" t="s">
-        <v>36</v>
+      <c r="B21" s="9" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
-      <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
+      <c r="B22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
+      <c r="A23" s="3"/>
+      <c r="B23" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+      <c r="B24" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>1</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A26">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+      <c r="B27" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>2</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A27">
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32">
         <v>3</v>
       </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
         <v>0.35</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33">
         <v>4</v>
       </c>
-      <c r="B28">
+      <c r="B33">
         <v>10</v>
       </c>
     </row>
@@ -1276,7 +1373,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1289,25 +1386,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>40000</v>
+        <f>B4*1000/2</f>
+        <v>25000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1315,7 +1413,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1323,7 +1421,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1340,81 +1438,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
+    <col min="1" max="1" width="10.06640625" customWidth="1"/>
     <col min="7" max="7" width="14.796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>50</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" t="s">
-        <v>58</v>
+      <c r="G10" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1434,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1457,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1480,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1503,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1613,7 +1712,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1623,22 +1722,22 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1648,30 +1747,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
+      <c r="A7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1779,10 +1878,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1792,122 +1891,134 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>89</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>61</v>
+      <c r="A3" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>64</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="B10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="B11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>85</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
